--- a/Json을 표로 구성.xlsx
+++ b/Json을 표로 구성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/CrizenSolution_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5661E-0481-F540-8A4C-3852FC05BBF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B915A3-0C15-514C-B009-C027CCE687C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{A415F215-70BE-9749-AD7D-AA0DA632E757}"/>
   </bookViews>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602FEA02-B24C-BE43-9626-5CAC6431B4C1}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1109,6 +1109,9 @@
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="C1">
+        <v>1525</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1">

--- a/Json을 표로 구성.xlsx
+++ b/Json을 표로 구성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/CrizenSolution_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B915A3-0C15-514C-B009-C027CCE687C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC58E39-767B-0740-87CA-611A26687902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{A415F215-70BE-9749-AD7D-AA0DA632E757}"/>
   </bookViews>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Json을 표로 구성.xlsx
+++ b/Json을 표로 구성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/CrizenSolution_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC58E39-767B-0740-87CA-611A26687902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA5FE0-1D46-8044-8F8E-551E37C25266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{A415F215-70BE-9749-AD7D-AA0DA632E757}"/>
+    <workbookView xWindow="-19200" yWindow="1300" windowWidth="19200" windowHeight="21100" xr2:uid="{A415F215-70BE-9749-AD7D-AA0DA632E757}"/>
   </bookViews>
   <sheets>
     <sheet name="단지내면적별정보" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>공시가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,14 +206,6 @@
   </si>
   <si>
     <t>아름풍림 5 단지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단지내 면적별 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단지정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,13 +460,24 @@
 과세대상아님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>file:/Users/byeonghyeon/Documents/hello-spring/gradlew.bat</t>
+  </si>
+  <si>
+    <t>단지 내 면적별 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -726,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1094,7 +1097,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1121,7 +1124,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1131,7 +1134,7 @@
     </row>
     <row r="8" spans="1:12" ht="19" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1180,28 +1183,28 @@
         <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="12">
         <v>204</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="J10" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K10" s="12">
         <v>1169</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1238,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="38">
@@ -1258,19 +1261,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1278,19 +1281,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="57">
@@ -1298,19 +1301,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1318,16 +1321,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3">
         <v>176</v>
       </c>
-      <c r="E19" s="3">
-        <v>142</v>
+      <c r="E19" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F19" s="15">
         <v>400</v>
@@ -1338,19 +1341,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1378,19 +1381,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19" thickBot="1">
@@ -1418,7 +1421,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
         <v>15</v>
@@ -1438,7 +1441,7 @@
     </row>
     <row r="27" spans="1:6" ht="19" thickBot="1">
       <c r="A27" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="12">
         <v>17</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="3">
         <v>9</v>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="32" spans="1:6" ht="19" thickBot="1">
       <c r="A32" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="12">
         <v>9.9</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1556,16 +1559,16 @@
         <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1588,7 +1591,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1596,22 +1599,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1634,7 +1637,7 @@
         <v>35</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1642,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>24</v>
@@ -1657,7 +1660,7 @@
         <v>35</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1665,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>24</v>
@@ -1680,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1688,22 +1691,22 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1711,22 +1714,22 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1734,22 +1737,22 @@
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Json을 표로 구성.xlsx
+++ b/Json을 표로 구성.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/CrizenSolution_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA5FE0-1D46-8044-8F8E-551E37C25266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC467BCF-3861-0240-92F7-F91019658AD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="1300" windowWidth="19200" windowHeight="21100" xr2:uid="{A415F215-70BE-9749-AD7D-AA0DA632E757}"/>
+    <workbookView xWindow="-38400" yWindow="1300" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{A415F215-70BE-9749-AD7D-AA0DA632E757}"/>
   </bookViews>
   <sheets>
     <sheet name="단지내면적별정보" sheetId="1" r:id="rId1"/>
-    <sheet name="단지명" sheetId="2" r:id="rId2"/>
+    <sheet name="면적별로 모으기" sheetId="2" r:id="rId2"/>
     <sheet name="단지정보" sheetId="3" r:id="rId3"/>
     <sheet name="단지종류" sheetId="4" r:id="rId4"/>
     <sheet name="시세 실거래가" sheetId="5" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>공시가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>방수/욕실수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아름5단지풍림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1096,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602FEA02-B24C-BE43-9626-5CAC6431B4C1}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1111,7 +1107,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1">
         <v>1525</v>
@@ -1119,92 +1115,92 @@
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" thickBot="1">
       <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F10" s="12">
         <v>204</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="J10" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="12">
         <v>1169</v>
@@ -1215,7 +1211,7 @@
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1241,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="F15" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="38">
@@ -1261,19 +1257,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1281,19 +1277,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="57">
@@ -1301,19 +1297,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1321,16 +1317,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3">
         <v>176</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="15">
         <v>400</v>
@@ -1341,19 +1337,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="F20" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1381,24 +1377,24 @@
         <v>7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1421,7 +1417,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3">
         <v>15</v>
@@ -1441,7 +1437,7 @@
     </row>
     <row r="27" spans="1:6" ht="19" thickBot="1">
       <c r="A27" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="12">
         <v>17</v>
@@ -1461,7 +1457,7 @@
     </row>
     <row r="29" spans="1:6" ht="19" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1484,7 +1480,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3">
         <v>9</v>
@@ -1504,7 +1500,7 @@
     </row>
     <row r="32" spans="1:6" ht="19" thickBot="1">
       <c r="A32" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="12">
         <v>9.9</v>
@@ -1524,28 +1520,28 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1553,22 +1549,22 @@
         <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1576,22 +1572,22 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1599,22 +1595,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1622,22 +1618,22 @@
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1645,22 +1641,22 @@
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1668,22 +1664,22 @@
         <v>5</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1691,22 +1687,22 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1714,22 +1710,22 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1737,22 +1733,22 @@
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1765,18 +1761,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5555F038-1328-A041-A48B-60E9A905C865}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1797,51 +1787,51 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="1">
         <v>0.16</v>
@@ -1865,7 +1855,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1903,12 +1893,12 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1929,72 +1919,72 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>504</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
